--- a/Imagens/Sementes Individuais/Dados Nova Base.xlsx
+++ b/Imagens/Sementes Individuais/Dados Nova Base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>dados nova base</t>
   </si>
@@ -47,111 +47,21 @@
     <t>Tomate</t>
   </si>
   <si>
-    <t>59896.000000 - 72297.000000</t>
-  </si>
-  <si>
-    <t>290.418635 - 319.505983</t>
-  </si>
-  <si>
-    <t>229 - 255</t>
-  </si>
-  <si>
-    <t>91 - 103</t>
-  </si>
-  <si>
-    <t>56 - 66</t>
-  </si>
-  <si>
     <t>Uva</t>
   </si>
   <si>
-    <t>29510.000000 - 49093.000000</t>
-  </si>
-  <si>
-    <t>197.470177 - 275.799963</t>
-  </si>
-  <si>
-    <t>171 - 189</t>
-  </si>
-  <si>
-    <t>89 - 95</t>
-  </si>
-  <si>
-    <t>94 - 100</t>
-  </si>
-  <si>
     <t>UvaDedo</t>
   </si>
   <si>
-    <t>32126.000000 - 43938.000000</t>
-  </si>
-  <si>
-    <t>307.870192 - 394.662647</t>
-  </si>
-  <si>
-    <t>88 - 97</t>
-  </si>
-  <si>
-    <t>93 - 100</t>
-  </si>
-  <si>
-    <t>97 - 104</t>
-  </si>
-  <si>
     <t>Azeitona</t>
   </si>
   <si>
-    <t>30144.000000 - 38045.000000</t>
-  </si>
-  <si>
-    <t>223.858671 - 258.183849</t>
-  </si>
-  <si>
-    <t>148 - 191</t>
-  </si>
-  <si>
-    <t>113 - 141</t>
-  </si>
-  <si>
-    <t>65 - 80</t>
-  </si>
-  <si>
     <t>UvaPassa</t>
   </si>
   <si>
-    <t>5666.000000 - 11201.000000</t>
-  </si>
-  <si>
-    <t>95.945505 - 153.079598</t>
-  </si>
-  <si>
-    <t>206 - 224</t>
-  </si>
-  <si>
-    <t>140 - 155</t>
-  </si>
-  <si>
-    <t>51 - 65</t>
-  </si>
-  <si>
     <t>Feijao</t>
   </si>
   <si>
-    <t>4326.000000 - 6109.000000</t>
-  </si>
-  <si>
-    <t>93.454240 - 113.789051</t>
-  </si>
-  <si>
-    <t>84 - 93</t>
-  </si>
-  <si>
-    <t>88 - 99</t>
-  </si>
-  <si>
-    <t>91 - 100</t>
-  </si>
-  <si>
     <t>azeitona</t>
   </si>
   <si>
@@ -216,6 +126,93 @@
   </si>
   <si>
     <t>feijao+uvapassa</t>
+  </si>
+  <si>
+    <t>30211.000000 - 43926.000000</t>
+  </si>
+  <si>
+    <t>216.496865 - 261.152510</t>
+  </si>
+  <si>
+    <t>76 - 97</t>
+  </si>
+  <si>
+    <t>161 - 182</t>
+  </si>
+  <si>
+    <t>128 - 151</t>
+  </si>
+  <si>
+    <t>4945.000000 - 5825.000000</t>
+  </si>
+  <si>
+    <t>96.276303 - 108.693567</t>
+  </si>
+  <si>
+    <t>105 - 136</t>
+  </si>
+  <si>
+    <t>100 - 137</t>
+  </si>
+  <si>
+    <t>102 - 135</t>
+  </si>
+  <si>
+    <t>55611.000000 - 72986.000000</t>
+  </si>
+  <si>
+    <t>280.365338 - 328.529262</t>
+  </si>
+  <si>
+    <t>207 - 234</t>
+  </si>
+  <si>
+    <t>114 - 124</t>
+  </si>
+  <si>
+    <t>80 - 88</t>
+  </si>
+  <si>
+    <t>31282.000000 - 53330.000000</t>
+  </si>
+  <si>
+    <t>206.831496 - 281.539122</t>
+  </si>
+  <si>
+    <t>171 - 190</t>
+  </si>
+  <si>
+    <t>102 - 111</t>
+  </si>
+  <si>
+    <t>101 - 118</t>
+  </si>
+  <si>
+    <t>39338.000000 - 55006.000000</t>
+  </si>
+  <si>
+    <t>344.740053 - 426.976033</t>
+  </si>
+  <si>
+    <t>109 - 139</t>
+  </si>
+  <si>
+    <t>111 - 140</t>
+  </si>
+  <si>
+    <t>6063.000000 - 11054.000000</t>
+  </si>
+  <si>
+    <t>98.437460 - 154.176551</t>
+  </si>
+  <si>
+    <t>204 - 218</t>
+  </si>
+  <si>
+    <t>144 - 169</t>
+  </si>
+  <si>
+    <t>59 - 101</t>
   </si>
 </sst>
 </file>
@@ -663,7 +660,7 @@
   <dimension ref="B4:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="A1:XFD1048576"/>
+      <selection activeCell="C5" sqref="C5:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,8 +668,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
@@ -704,22 +700,22 @@
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="10" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -728,22 +724,22 @@
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K5" s="10">
         <v>0</v>
@@ -752,181 +748,181 @@
         <v>0</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K6" s="10">
         <v>0</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M6" s="13">
         <v>0</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="K7" s="10">
         <v>0</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N7" s="12">
         <v>0</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K8" s="10">
         <v>0</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O8" s="11">
         <v>0</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K9" s="10">
         <v>0</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P9" s="14">
         <v>0</v>
@@ -935,28 +931,28 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
@@ -965,79 +961,79 @@
         <v>0</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J11" s="16" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N11" s="12">
         <v>0</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J12" s="16" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O12" s="11">
         <v>0</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J13" s="16" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P13" s="14">
         <v>0</v>
@@ -1045,13 +1041,13 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J14" s="17" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M14" s="13">
         <v>0</v>
@@ -1060,53 +1056,53 @@
         <v>0</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J15" s="17" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M15" s="13">
         <v>0</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O15" s="11">
         <v>0</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J16" s="17" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M16" s="13">
         <v>0</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P16" s="14">
         <v>0</v>
@@ -1114,16 +1110,16 @@
     </row>
     <row r="17" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J17" s="18" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N17" s="12">
         <v>0</v>
@@ -1132,27 +1128,27 @@
         <v>0</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J18" s="18" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N18" s="12">
         <v>0</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P18" s="14">
         <v>0</v>
@@ -1160,19 +1156,19 @@
     </row>
     <row r="19" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J19" s="9" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O19" s="11">
         <v>0</v>
